--- a/US/data/RCM/FDSA/svc_historicaldata.xlsx
+++ b/US/data/RCM/FDSA/svc_historicaldata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7B1EF-14EA-4BAC-A7AA-64DC97E8449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C52D75-5C60-4273-9A7D-7EBF63609788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,9 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW342"/>
+  <dimension ref="A1:AW344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -51598,6 +51600,304 @@
         <v>32</v>
       </c>
     </row>
+    <row r="343" spans="1:49">
+      <c r="A343" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B343" s="2">
+        <v>21</v>
+      </c>
+      <c r="C343" s="2">
+        <v>31</v>
+      </c>
+      <c r="D343" s="2">
+        <v>12</v>
+      </c>
+      <c r="E343" s="2">
+        <v>36</v>
+      </c>
+      <c r="F343" s="2">
+        <v>48</v>
+      </c>
+      <c r="G343" s="2">
+        <v>60</v>
+      </c>
+      <c r="H343" s="2">
+        <v>29</v>
+      </c>
+      <c r="I343" s="2">
+        <v>28</v>
+      </c>
+      <c r="J343" s="2">
+        <v>7</v>
+      </c>
+      <c r="K343" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="L343" s="2">
+        <v>10</v>
+      </c>
+      <c r="M343" s="2">
+        <v>6</v>
+      </c>
+      <c r="N343" s="2">
+        <v>-18</v>
+      </c>
+      <c r="O343" s="2">
+        <v>-21</v>
+      </c>
+      <c r="P343" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q343" s="2">
+        <v>18</v>
+      </c>
+      <c r="R343" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="S343" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="T343" s="2">
+        <v>23</v>
+      </c>
+      <c r="U343" s="2">
+        <v>31</v>
+      </c>
+      <c r="V343" s="2">
+        <v>39</v>
+      </c>
+      <c r="W343" s="2">
+        <v>23</v>
+      </c>
+      <c r="X343" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y343" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z343" s="2">
+        <v>27</v>
+      </c>
+      <c r="AA343" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB343" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC343" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD343" s="2">
+        <v>62</v>
+      </c>
+      <c r="AE343" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF343" s="2">
+        <v>23</v>
+      </c>
+      <c r="AG343" s="2">
+        <v>7.16</v>
+      </c>
+      <c r="AH343" s="2">
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="AI343" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ343" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK343" s="2">
+        <v>-21</v>
+      </c>
+      <c r="AL343" s="2">
+        <v>-21</v>
+      </c>
+      <c r="AM343" s="2">
+        <v>7</v>
+      </c>
+      <c r="AN343" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO343" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="AP343" s="2">
+        <v>7.67</v>
+      </c>
+      <c r="AQ343" s="2">
+        <v>22</v>
+      </c>
+      <c r="AR343" s="2">
+        <v>35</v>
+      </c>
+      <c r="AS343" s="2">
+        <v>30</v>
+      </c>
+      <c r="AT343" s="2">
+        <v>38</v>
+      </c>
+      <c r="AU343" s="2">
+        <v>20</v>
+      </c>
+      <c r="AV343" s="2">
+        <v>22</v>
+      </c>
+      <c r="AW343" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344" spans="1:49">
+      <c r="A344" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B344" s="2">
+        <v>7</v>
+      </c>
+      <c r="C344" s="2">
+        <v>13</v>
+      </c>
+      <c r="D344" s="2">
+        <v>17</v>
+      </c>
+      <c r="E344" s="2">
+        <v>19</v>
+      </c>
+      <c r="F344" s="2">
+        <v>36</v>
+      </c>
+      <c r="G344" s="2">
+        <v>49</v>
+      </c>
+      <c r="H344" s="2">
+        <v>12</v>
+      </c>
+      <c r="I344" s="2">
+        <v>11</v>
+      </c>
+      <c r="J344" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="K344" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="L344" s="2">
+        <v>-3</v>
+      </c>
+      <c r="M344" s="2">
+        <v>-10</v>
+      </c>
+      <c r="N344" s="2">
+        <v>-24</v>
+      </c>
+      <c r="O344" s="2">
+        <v>-13</v>
+      </c>
+      <c r="P344" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q344" s="2">
+        <v>9</v>
+      </c>
+      <c r="R344" s="2">
+        <v>8.98</v>
+      </c>
+      <c r="S344" s="2">
+        <v>6.78</v>
+      </c>
+      <c r="T344" s="2">
+        <v>16</v>
+      </c>
+      <c r="U344" s="2">
+        <v>21</v>
+      </c>
+      <c r="V344" s="2">
+        <v>30</v>
+      </c>
+      <c r="W344" s="2">
+        <v>8</v>
+      </c>
+      <c r="X344" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y344" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z344" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA344" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB344" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC344" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD344" s="2">
+        <v>52</v>
+      </c>
+      <c r="AE344" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF344" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG344" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="AH344" s="2">
+        <v>5.43</v>
+      </c>
+      <c r="AI344" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AJ344" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AK344" s="2">
+        <v>-23</v>
+      </c>
+      <c r="AL344" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AM344" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN344" s="2">
+        <v>8</v>
+      </c>
+      <c r="AO344" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="AP344" s="2">
+        <v>6.79</v>
+      </c>
+      <c r="AQ344" s="2">
+        <v>18</v>
+      </c>
+      <c r="AR344" s="2">
+        <v>29</v>
+      </c>
+      <c r="AS344" s="2">
+        <v>22</v>
+      </c>
+      <c r="AT344" s="2">
+        <v>32</v>
+      </c>
+      <c r="AU344" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV344" s="2">
+        <v>16</v>
+      </c>
+      <c r="AW344" s="2">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
